--- a/Data_frame/balancos_definitivos/WEST3.xlsx
+++ b/Data_frame/balancos_definitivos/WEST3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -566,6 +581,15 @@
       <c r="P2" t="n">
         <v>365344.992</v>
       </c>
+      <c r="Q2" t="n">
+        <v>351209.984</v>
+      </c>
+      <c r="R2" t="n">
+        <v>333081.984</v>
+      </c>
+      <c r="S2" t="n">
+        <v>319304</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -618,6 +642,15 @@
       <c r="P3" t="n">
         <v>228116.992</v>
       </c>
+      <c r="Q3" t="n">
+        <v>211022</v>
+      </c>
+      <c r="R3" t="n">
+        <v>193726</v>
+      </c>
+      <c r="S3" t="n">
+        <v>185216</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -670,6 +703,15 @@
       <c r="P4" t="n">
         <v>137727.008</v>
       </c>
+      <c r="Q4" t="n">
+        <v>139348</v>
+      </c>
+      <c r="R4" t="n">
+        <v>131916</v>
+      </c>
+      <c r="S4" t="n">
+        <v>129261</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -722,6 +764,15 @@
       <c r="P5" t="n">
         <v>2799</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -774,6 +825,15 @@
       <c r="P6" t="n">
         <v>45102</v>
       </c>
+      <c r="Q6" t="n">
+        <v>44328</v>
+      </c>
+      <c r="R6" t="n">
+        <v>39494</v>
+      </c>
+      <c r="S6" t="n">
+        <v>37294</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -826,6 +886,15 @@
       <c r="P7" t="n">
         <v>29561</v>
       </c>
+      <c r="Q7" t="n">
+        <v>22879</v>
+      </c>
+      <c r="R7" t="n">
+        <v>20320</v>
+      </c>
+      <c r="S7" t="n">
+        <v>17425</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -878,6 +947,15 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -930,6 +1008,15 @@
       <c r="P9" t="n">
         <v>9328</v>
       </c>
+      <c r="Q9" t="n">
+        <v>3096</v>
+      </c>
+      <c r="R9" t="n">
+        <v>468</v>
+      </c>
+      <c r="S9" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -982,6 +1069,15 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1130,15 @@
       <c r="P11" t="n">
         <v>3600</v>
       </c>
+      <c r="Q11" t="n">
+        <v>1371</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1528</v>
+      </c>
+      <c r="S11" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1086,6 +1191,15 @@
       <c r="P12" t="n">
         <v>84247</v>
       </c>
+      <c r="Q12" t="n">
+        <v>91702</v>
+      </c>
+      <c r="R12" t="n">
+        <v>94459</v>
+      </c>
+      <c r="S12" t="n">
+        <v>93473</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1138,6 +1252,15 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>2649</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2578</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2503</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1190,6 +1313,15 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1242,6 +1374,15 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1294,6 +1435,15 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1346,6 +1496,15 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1398,6 +1557,15 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1450,6 +1618,15 @@
       <c r="P19" t="n">
         <v>53874</v>
       </c>
+      <c r="Q19" t="n">
+        <v>54889</v>
+      </c>
+      <c r="R19" t="n">
+        <v>55680</v>
+      </c>
+      <c r="S19" t="n">
+        <v>56386</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1502,6 +1679,15 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1554,6 +1740,15 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1606,6 +1801,15 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1658,6 +1862,15 @@
       <c r="P23" t="n">
         <v>37088</v>
       </c>
+      <c r="Q23" t="n">
+        <v>32919</v>
+      </c>
+      <c r="R23" t="n">
+        <v>29768</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25938</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1710,6 +1923,15 @@
       <c r="P24" t="n">
         <v>15893</v>
       </c>
+      <c r="Q24" t="n">
+        <v>15567</v>
+      </c>
+      <c r="R24" t="n">
+        <v>15129</v>
+      </c>
+      <c r="S24" t="n">
+        <v>14677</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1762,6 +1984,15 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1814,6 +2045,15 @@
       <c r="P26" t="n">
         <v>365344.992</v>
       </c>
+      <c r="Q26" t="n">
+        <v>351209.984</v>
+      </c>
+      <c r="R26" t="n">
+        <v>333081.984</v>
+      </c>
+      <c r="S26" t="n">
+        <v>319304</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1866,6 +2106,15 @@
       <c r="P27" t="n">
         <v>72277</v>
       </c>
+      <c r="Q27" t="n">
+        <v>73863</v>
+      </c>
+      <c r="R27" t="n">
+        <v>67324</v>
+      </c>
+      <c r="S27" t="n">
+        <v>63141</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1918,6 +2167,15 @@
       <c r="P28" t="n">
         <v>10865</v>
       </c>
+      <c r="Q28" t="n">
+        <v>9400</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6736</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6898</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1970,6 +2228,15 @@
       <c r="P29" t="n">
         <v>37619</v>
       </c>
+      <c r="Q29" t="n">
+        <v>39349</v>
+      </c>
+      <c r="R29" t="n">
+        <v>32309</v>
+      </c>
+      <c r="S29" t="n">
+        <v>29918</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2022,6 +2289,15 @@
       <c r="P30" t="n">
         <v>3075</v>
       </c>
+      <c r="Q30" t="n">
+        <v>3662</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3357</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2720</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2074,6 +2350,15 @@
       <c r="P31" t="n">
         <v>9450</v>
       </c>
+      <c r="Q31" t="n">
+        <v>9202</v>
+      </c>
+      <c r="R31" t="n">
+        <v>9904</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10122</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2126,6 +2411,15 @@
       <c r="P32" t="n">
         <v>59</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2178,6 +2472,15 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2230,6 +2533,15 @@
       <c r="P34" t="n">
         <v>11209</v>
       </c>
+      <c r="Q34" t="n">
+        <v>12250</v>
+      </c>
+      <c r="R34" t="n">
+        <v>15018</v>
+      </c>
+      <c r="S34" t="n">
+        <v>13483</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2282,6 +2594,15 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2334,6 +2655,15 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2386,6 +2716,15 @@
       <c r="P37" t="n">
         <v>20643</v>
       </c>
+      <c r="Q37" t="n">
+        <v>21943</v>
+      </c>
+      <c r="R37" t="n">
+        <v>24858</v>
+      </c>
+      <c r="S37" t="n">
+        <v>23525</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2438,6 +2777,15 @@
       <c r="P38" t="n">
         <v>8649</v>
       </c>
+      <c r="Q38" t="n">
+        <v>6565</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5655</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3506</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2490,6 +2838,15 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2542,6 +2899,15 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4940</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2594,6 +2960,15 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2646,6 +3021,15 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2698,6 +3082,15 @@
       <c r="P43" t="n">
         <v>11994</v>
       </c>
+      <c r="Q43" t="n">
+        <v>15378</v>
+      </c>
+      <c r="R43" t="n">
+        <v>14263</v>
+      </c>
+      <c r="S43" t="n">
+        <v>20019</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2750,6 +3143,15 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2802,6 +3204,15 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2854,6 +3265,15 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2906,6 +3326,15 @@
       <c r="P47" t="n">
         <v>272424.992</v>
       </c>
+      <c r="Q47" t="n">
+        <v>255404</v>
+      </c>
+      <c r="R47" t="n">
+        <v>240900</v>
+      </c>
+      <c r="S47" t="n">
+        <v>232638</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2958,6 +3387,15 @@
       <c r="P48" t="n">
         <v>471076.992</v>
       </c>
+      <c r="Q48" t="n">
+        <v>471166.016</v>
+      </c>
+      <c r="R48" t="n">
+        <v>471230.016</v>
+      </c>
+      <c r="S48" t="n">
+        <v>471284</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3010,6 +3448,15 @@
       <c r="P49" t="n">
         <v>-9856</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-10431</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-10404</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-10380</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3062,6 +3509,15 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3114,6 +3570,15 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3166,6 +3631,15 @@
       <c r="P52" t="n">
         <v>-188796</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-205331.008</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-219926</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-228266</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3218,6 +3692,15 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3270,6 +3753,15 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3322,6 +3814,15 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3372,6 +3873,15 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3396,6 +3906,9 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3418,6 +3931,9 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3468,6 +3984,15 @@
       <c r="P59" t="n">
         <v>51016</v>
       </c>
+      <c r="Q59" t="n">
+        <v>56948</v>
+      </c>
+      <c r="R59" t="n">
+        <v>40712</v>
+      </c>
+      <c r="S59" t="n">
+        <v>41504</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3518,6 +4043,15 @@
       <c r="P60" t="n">
         <v>-29667</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-38040</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-24348</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-23667</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3568,6 +4102,15 @@
       <c r="P61" t="n">
         <v>21349</v>
       </c>
+      <c r="Q61" t="n">
+        <v>18908</v>
+      </c>
+      <c r="R61" t="n">
+        <v>16364</v>
+      </c>
+      <c r="S61" t="n">
+        <v>17837</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3618,6 +4161,15 @@
       <c r="P62" t="n">
         <v>-17172</v>
       </c>
+      <c r="Q62" t="n">
+        <v>-30014</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-14867</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-10091</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3668,6 +4220,15 @@
       <c r="P63" t="n">
         <v>-26819</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-13000</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-22153</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-20648</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3718,6 +4279,15 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3768,6 +4338,15 @@
       <c r="P65" t="n">
         <v>3239</v>
       </c>
+      <c r="Q65" t="n">
+        <v>3747</v>
+      </c>
+      <c r="R65" t="n">
+        <v>457</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1491</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3818,6 +4397,15 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3866,6 +4454,15 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,6 +4515,15 @@
       <c r="P68" t="n">
         <v>4759</v>
       </c>
+      <c r="Q68" t="n">
+        <v>2809</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4813</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2365</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3968,6 +4574,15 @@
       <c r="P69" t="n">
         <v>6023</v>
       </c>
+      <c r="Q69" t="n">
+        <v>4379</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5384</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4045</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4017,6 +4632,15 @@
       </c>
       <c r="P70" t="n">
         <v>-1264</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-1570</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-571</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-1680</v>
       </c>
     </row>
     <row r="71">
@@ -4040,6 +4664,9 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4062,6 +4689,9 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4084,6 +4714,9 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4134,6 +4767,15 @@
       <c r="P74" t="n">
         <v>-14644</v>
       </c>
+      <c r="Q74" t="n">
+        <v>-17550</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-15386</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-9046</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4184,6 +4826,15 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4233,6 +4884,15 @@
       </c>
       <c r="P76" t="n">
         <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1015</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>706</v>
       </c>
     </row>
     <row r="77">
@@ -4256,6 +4916,9 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4278,6 +4941,9 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4300,6 +4966,9 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4349,6 +5018,15 @@
       </c>
       <c r="P80" t="n">
         <v>-14644</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-16535</v>
+      </c>
+      <c r="R80" t="n">
+        <v>-14595</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-8340</v>
       </c>
     </row>
   </sheetData>
